--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-202_ビジネスモデル(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-202_ビジネスモデル(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -517,16 +517,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -547,6 +537,13 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4462,9 +4459,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
       <c r="J31" s="24"/>
-      <c r="R31" s="25" t="s">
-        <v>34</v>
-      </c>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="20"/>
@@ -4504,20 +4499,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4992,7 +4991,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5480,7 +5479,7 @@
     <row r="24" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-202_ビジネスモデル(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-202_ビジネスモデル(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF84AD-6B7A-40D1-B21F-B21FD07F41E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="10575" windowHeight="5760"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -517,17 +528,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>[Tim Clark 著、神田 昌典 翻訳 （2012） 『ビジネスモデルYOU』[7] P32-33より引用、一部改訂]</t>
     <rPh sb="53" eb="55">
       <t>インヨウ</t>
@@ -537,13 +537,6 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>カイテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -551,7 +544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1157,6 +1150,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1178,7 +1174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1276,52 +1278,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1337,7 +1293,13 @@
     <xdr:ext cx="1005403" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1423,7 +1385,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1482,7 +1450,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="カギ線コネクタ 73"/>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="73" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -1534,7 +1508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1597,7 +1577,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="カギ線コネクタ 108"/>
+        <xdr:cNvPr id="109" name="カギ線コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="108" idx="3"/>
           <a:endCxn id="136" idx="1"/>
@@ -1649,7 +1635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+        <xdr:cNvPr id="121" name="正方形/長方形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1736,7 +1728,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+        <xdr:cNvPr id="136" name="正方形/長方形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1823,7 +1821,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="121" idx="2"/>
           <a:endCxn id="136" idx="0"/>
@@ -1868,7 +1872,13 @@
     <xdr:ext cx="1313180" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1937,7 +1947,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="メモ 1"/>
+        <xdr:cNvPr id="2" name="メモ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1992,7 +2008,13 @@
     <xdr:ext cx="466794" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2048,7 +2070,13 @@
     <xdr:ext cx="1031051" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2104,7 +2132,13 @@
     <xdr:ext cx="1172116" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2160,7 +2194,13 @@
     <xdr:ext cx="1454244" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2216,7 +2256,13 @@
     <xdr:ext cx="607859" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2272,7 +2318,13 @@
     <xdr:ext cx="466794" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2328,7 +2380,13 @@
     <xdr:ext cx="748923" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2384,7 +2442,13 @@
     <xdr:ext cx="889987" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2440,7 +2504,13 @@
     <xdr:ext cx="1031051" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2501,7 +2571,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="メモ 24"/>
+        <xdr:cNvPr id="25" name="メモ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2593,7 +2669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="メモ 25"/>
+        <xdr:cNvPr id="26" name="メモ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2653,7 +2735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="メモ 26"/>
+        <xdr:cNvPr id="27" name="メモ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2713,7 +2801,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="メモ 27"/>
+        <xdr:cNvPr id="28" name="メモ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2773,7 +2867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="メモ 28"/>
+        <xdr:cNvPr id="29" name="メモ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2833,7 +2933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="メモ 29"/>
+        <xdr:cNvPr id="30" name="メモ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2893,7 +2999,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="メモ 30"/>
+        <xdr:cNvPr id="31" name="メモ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2953,7 +3065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="メモ 31"/>
+        <xdr:cNvPr id="32" name="メモ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3013,7 +3131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="メモ 32"/>
+        <xdr:cNvPr id="33" name="メモ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3073,7 +3197,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="メモ 33"/>
+        <xdr:cNvPr id="34" name="メモ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3133,7 +3263,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="メモ 34"/>
+        <xdr:cNvPr id="35" name="メモ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3193,7 +3329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="メモ 35"/>
+        <xdr:cNvPr id="36" name="メモ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3253,7 +3395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="メモ 36"/>
+        <xdr:cNvPr id="37" name="メモ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3313,7 +3461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="メモ 37"/>
+        <xdr:cNvPr id="38" name="メモ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3373,7 +3527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="メモ 38"/>
+        <xdr:cNvPr id="39" name="メモ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3433,7 +3593,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="メモ 39"/>
+        <xdr:cNvPr id="40" name="メモ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3493,7 +3659,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="メモ 40"/>
+        <xdr:cNvPr id="41" name="メモ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3553,7 +3725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="メモ 41"/>
+        <xdr:cNvPr id="42" name="メモ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3613,7 +3791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="メモ 42"/>
+        <xdr:cNvPr id="43" name="メモ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3673,7 +3857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="メモ 43"/>
+        <xdr:cNvPr id="44" name="メモ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3733,7 +3923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="メモ 44"/>
+        <xdr:cNvPr id="45" name="メモ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3793,7 +3989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="メモ 45"/>
+        <xdr:cNvPr id="46" name="メモ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3853,7 +4055,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="メモ 46"/>
+        <xdr:cNvPr id="47" name="メモ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3913,7 +4121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="メモ 47"/>
+        <xdr:cNvPr id="48" name="メモ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3973,7 +4187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="メモ 48"/>
+        <xdr:cNvPr id="49" name="メモ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4033,7 +4253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="メモ 50"/>
+        <xdr:cNvPr id="51" name="メモ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4082,7 +4308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4124,7 +4350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4157,9 +4383,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4192,6 +4435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4367,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S508"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4473,58 +4733,47 @@
       <c r="R32" s="28"/>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="30"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="29"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="29"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>35</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="32"/>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
-      <c r="R39" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="R39" s="30"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4987,17 +5236,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5479,7 +5725,7 @@
     <row r="24" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="34"/>
       <c r="C24" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -5536,12 +5782,18 @@
     <row r="41" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:Y18"/>
     <mergeCell ref="Z18:AH18"/>
@@ -5554,18 +5806,12 @@
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5581,7 +5827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
